--- a/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F6_dim10.xlsx
+++ b/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F6_dim10.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -190,7 +189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,14 +224,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -517,18 +521,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">

--- a/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F6_dim10.xlsx
+++ b/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F6_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>672029226.3486198</v>
       </c>
       <c r="AZ2" t="n">
-        <v>147583341.4440907</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>283725869.7040606</v>
+        <v>286448720.26926</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>123759665.4250558</v>
@@ -1011,38 +1002,61 @@
         <v>222845792.6369399</v>
       </c>
       <c r="AZ3" t="n">
-        <v>94384224.27447918</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>141025230.267482</v>
+        <v>141958050.3873421</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>25</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>17394091.00679511</v>
       </c>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
+      <c r="C4" t="n">
+        <v>26105373.1181916</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19739419.60637359</v>
+      </c>
+      <c r="E4" t="n">
+        <v>32925405.01808935</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14744871.70026973</v>
+      </c>
+      <c r="G4" t="n">
+        <v>24424130.0700472</v>
+      </c>
       <c r="H4" t="n">
         <v>20330735.2243678</v>
       </c>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
+      <c r="I4" t="n">
+        <v>21684060.36185313</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10563201.18221353</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18105447.09903089</v>
+      </c>
       <c r="L4" t="n">
         <v>33233719.7731676</v>
       </c>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="M4" t="n">
+        <v>23833411.98081936</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29305227.76128963</v>
+      </c>
+      <c r="O4" t="n">
+        <v>46014775.10563868</v>
+      </c>
+      <c r="P4" t="n">
+        <v>55409377.31908373</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3421173.69973845</v>
+      </c>
       <c r="R4" t="n">
         <v>14126631.93691415</v>
       </c>
@@ -1052,662 +1066,1681 @@
       <c r="T4" t="n">
         <v>40305138.3309031</v>
       </c>
-      <c r="U4" t="s"/>
-      <c r="V4" t="s"/>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="U4" t="n">
+        <v>40989568.54616229</v>
+      </c>
+      <c r="V4" t="n">
+        <v>32261031.16995399</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10333725.15785807</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4901794.68112387</v>
+      </c>
       <c r="Y4" t="n">
         <v>34950743.83182547</v>
       </c>
-      <c r="Z4" t="s"/>
-      <c r="AA4" t="s"/>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="s"/>
+      <c r="Z4" t="n">
+        <v>17010066.72054104</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>28367778.12674735</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10289930.4649732</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>39757708.1648336</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>14895185.25974168</v>
+      </c>
       <c r="AE4" t="n">
         <v>30273178.4826963</v>
       </c>
-      <c r="AF4" t="s"/>
-      <c r="AG4" t="s"/>
-      <c r="AH4" t="s"/>
-      <c r="AI4" t="s"/>
-      <c r="AJ4" t="s"/>
-      <c r="AK4" t="s"/>
-      <c r="AL4" t="s"/>
+      <c r="AF4" t="n">
+        <v>44279404.71871211</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>17930536.05405713</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>14318729.26922338</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21605803.75342229</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10631873.31183791</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23938361.03016314</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>30466467.51559087</v>
+      </c>
       <c r="AM4" t="n">
         <v>21778434.03195483</v>
       </c>
-      <c r="AN4" t="s"/>
-      <c r="AO4" t="s"/>
-      <c r="AP4" t="s"/>
-      <c r="AQ4" t="s"/>
-      <c r="AR4" t="s"/>
-      <c r="AS4" t="s"/>
+      <c r="AN4" t="n">
+        <v>63374458.51167257</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>38888132.74538465</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>20116709.93923519</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>9264945.02315441</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>18676529.4167007</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>31956595.10701463</v>
+      </c>
       <c r="AT4" t="n">
         <v>17527299.01568924</v>
       </c>
-      <c r="AU4" t="s"/>
-      <c r="AV4" t="s"/>
-      <c r="AW4" t="s"/>
-      <c r="AX4" t="s"/>
+      <c r="AU4" t="n">
+        <v>26885978.4962091</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>43937859.85936609</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>42180347.1614807</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>32603543.15498996</v>
+      </c>
       <c r="AY4" t="n">
         <v>29551076.34738563</v>
       </c>
-      <c r="AZ4" t="s"/>
-      <c r="BA4" t="n">
-        <v>25666631.52015929</v>
+      <c r="AZ4" t="n">
+        <v>25969437.68209082</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>254</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>1952366.60478639</v>
       </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
-      <c r="Z5" t="s"/>
-      <c r="AA5" t="s"/>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
-      <c r="AD5" t="s"/>
-      <c r="AE5" t="s"/>
-      <c r="AF5" t="s"/>
-      <c r="AG5" t="s"/>
-      <c r="AH5" t="s"/>
-      <c r="AI5" t="s"/>
-      <c r="AJ5" t="s"/>
-      <c r="AK5" t="s"/>
-      <c r="AL5" t="s"/>
-      <c r="AM5" t="s"/>
-      <c r="AN5" t="s"/>
-      <c r="AO5" t="s"/>
-      <c r="AP5" t="s"/>
-      <c r="AQ5" t="s"/>
-      <c r="AR5" t="s"/>
-      <c r="AS5" t="s"/>
-      <c r="AT5" t="s"/>
-      <c r="AU5" t="s"/>
-      <c r="AV5" t="s"/>
-      <c r="AW5" t="s"/>
-      <c r="AX5" t="s"/>
+      <c r="C5" t="n">
+        <v>362222.30746554</v>
+      </c>
+      <c r="D5" t="n">
+        <v>643673.86743966</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1666021.2591654</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1229081.17738755</v>
+      </c>
+      <c r="G5" t="n">
+        <v>819357.14450444</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1030559.92205744</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1242805.77657082</v>
+      </c>
+      <c r="J5" t="n">
+        <v>917765.42991497</v>
+      </c>
+      <c r="K5" t="n">
+        <v>372243.65494524</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3931738.32116047</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1209460.06256279</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2660669.78589922</v>
+      </c>
+      <c r="O5" t="n">
+        <v>886051.56091159</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1341911.54610169</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>856140.41337071</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1417120.27526796</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1354832.21615204</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1438766.72174794</v>
+      </c>
+      <c r="U5" t="n">
+        <v>557760.40438919</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2058821.23489248</v>
+      </c>
+      <c r="W5" t="n">
+        <v>806762.71748521</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1531832.3181207</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>960062.51975321</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1469287.58700269</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1143409.51765133</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>620485.97527282</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1035889.68505852</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>774616.93994583</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>626234.47334868</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2050992.97002655</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2474615.4202834</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>272272.55295854</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1699157.29130963</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1200253.94168471</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>875227.43726004</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>694178.72066078</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1154598.09242607</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1689142.32697698</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2331158.23740775</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2226023.26751056</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>908140.93173801</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>738206.16525534</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1436828.43535595</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1741172.10472846</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1466527.47784409</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1681603.36113188</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1526672.81287236</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>2833320.64927736</v>
+      </c>
       <c r="AY5" t="n">
         <v>1169530.1146908</v>
       </c>
-      <c r="AZ5" t="s"/>
-      <c r="BA5" t="n">
-        <v>1560948.35973859</v>
+      <c r="AZ5" t="n">
+        <v>1341751.47463464</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>509</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>824182.10756175</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
-      <c r="Z6" t="s"/>
-      <c r="AA6" t="s"/>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="s"/>
-      <c r="AE6" t="s"/>
-      <c r="AF6" t="s"/>
-      <c r="AG6" t="s"/>
-      <c r="AH6" t="s"/>
-      <c r="AI6" t="s"/>
-      <c r="AJ6" t="s"/>
-      <c r="AK6" t="s"/>
-      <c r="AL6" t="s"/>
-      <c r="AM6" t="s"/>
-      <c r="AN6" t="s"/>
-      <c r="AO6" t="s"/>
-      <c r="AP6" t="s"/>
-      <c r="AQ6" t="s"/>
-      <c r="AR6" t="s"/>
-      <c r="AS6" t="s"/>
-      <c r="AT6" t="s"/>
-      <c r="AU6" t="s"/>
-      <c r="AV6" t="s"/>
-      <c r="AW6" t="s"/>
-      <c r="AX6" t="s"/>
-      <c r="AY6" t="s"/>
-      <c r="AZ6" t="s"/>
-      <c r="BA6" t="n">
-        <v>824182.10756175</v>
+      <c r="C6" t="n">
+        <v>360619.82304918</v>
+      </c>
+      <c r="D6" t="n">
+        <v>195299.82269403</v>
+      </c>
+      <c r="E6" t="n">
+        <v>338660.88889374</v>
+      </c>
+      <c r="F6" t="n">
+        <v>259541.27783198</v>
+      </c>
+      <c r="G6" t="n">
+        <v>695530.83551185</v>
+      </c>
+      <c r="H6" t="n">
+        <v>368025.78243047</v>
+      </c>
+      <c r="I6" t="n">
+        <v>688237.5202024101</v>
+      </c>
+      <c r="J6" t="n">
+        <v>760176.85823637</v>
+      </c>
+      <c r="K6" t="n">
+        <v>144362.35709065</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1767420.18827172</v>
+      </c>
+      <c r="M6" t="n">
+        <v>372391.57014374</v>
+      </c>
+      <c r="N6" t="n">
+        <v>537932.98338049</v>
+      </c>
+      <c r="O6" t="n">
+        <v>390284.7613237</v>
+      </c>
+      <c r="P6" t="n">
+        <v>290671.81571507</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>253907.13927192</v>
+      </c>
+      <c r="R6" t="n">
+        <v>666042.0854669299</v>
+      </c>
+      <c r="S6" t="n">
+        <v>367551.32287274</v>
+      </c>
+      <c r="T6" t="n">
+        <v>519801.60424966</v>
+      </c>
+      <c r="U6" t="n">
+        <v>323173.77813438</v>
+      </c>
+      <c r="V6" t="n">
+        <v>127427.15093196</v>
+      </c>
+      <c r="W6" t="n">
+        <v>560924.70299466</v>
+      </c>
+      <c r="X6" t="n">
+        <v>907149.74307293</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>790273.01324757</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>553305.68944101</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>177583.365694</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>128917.11964881</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>475593.29398759</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>72834.26027054001</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>367423.51924434</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>280276.80917454</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>617369.11529899</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>266536.93721045</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>906012.95478968</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>170176.76933345</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>715250.8097227</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>239048.03471235</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>720623.77478501</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>333291.80383274</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>287528.60717133</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>690985.06283082</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>363402.38646795</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>320050.46468737</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>284738.66054962</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>436571.25881818</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>78678.84725291999</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>736605.72514215</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>172037.38427251</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>803168.23547731</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>951109.27652498</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>473174.18597842</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>764</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>220446.9658076</v>
       </c>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="s"/>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="s"/>
-      <c r="AE7" t="s"/>
-      <c r="AF7" t="s"/>
-      <c r="AG7" t="s"/>
-      <c r="AH7" t="s"/>
-      <c r="AI7" t="s"/>
-      <c r="AJ7" t="s"/>
-      <c r="AK7" t="s"/>
-      <c r="AL7" t="s"/>
-      <c r="AM7" t="s"/>
-      <c r="AN7" t="s"/>
-      <c r="AO7" t="s"/>
-      <c r="AP7" t="s"/>
-      <c r="AQ7" t="s"/>
-      <c r="AR7" t="s"/>
-      <c r="AS7" t="s"/>
-      <c r="AT7" t="s"/>
-      <c r="AU7" t="s"/>
-      <c r="AV7" t="s"/>
-      <c r="AW7" t="s"/>
-      <c r="AX7" t="s"/>
-      <c r="AY7" t="s"/>
-      <c r="AZ7" t="s"/>
-      <c r="BA7" t="n">
-        <v>220446.9658076</v>
+      <c r="C7" t="n">
+        <v>171491.12877448</v>
+      </c>
+      <c r="D7" t="n">
+        <v>139462.15422145</v>
+      </c>
+      <c r="E7" t="n">
+        <v>150305.90104062</v>
+      </c>
+      <c r="F7" t="n">
+        <v>102815.25009946</v>
+      </c>
+      <c r="G7" t="n">
+        <v>218897.39018801</v>
+      </c>
+      <c r="H7" t="n">
+        <v>216013.76549528</v>
+      </c>
+      <c r="I7" t="n">
+        <v>178384.99163768</v>
+      </c>
+      <c r="J7" t="n">
+        <v>128803.65259097</v>
+      </c>
+      <c r="K7" t="n">
+        <v>100761.95855996</v>
+      </c>
+      <c r="L7" t="n">
+        <v>232154.92268617</v>
+      </c>
+      <c r="M7" t="n">
+        <v>261672.81639258</v>
+      </c>
+      <c r="N7" t="n">
+        <v>70036.30079246</v>
+      </c>
+      <c r="O7" t="n">
+        <v>269319.70081673</v>
+      </c>
+      <c r="P7" t="n">
+        <v>230371.34345447</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>74941.77235478</v>
+      </c>
+      <c r="R7" t="n">
+        <v>220880.2801281</v>
+      </c>
+      <c r="S7" t="n">
+        <v>63506.98211466</v>
+      </c>
+      <c r="T7" t="n">
+        <v>168110.75432118</v>
+      </c>
+      <c r="U7" t="n">
+        <v>263278.14944068</v>
+      </c>
+      <c r="V7" t="n">
+        <v>78833.00660913999</v>
+      </c>
+      <c r="W7" t="n">
+        <v>225576.73971816</v>
+      </c>
+      <c r="X7" t="n">
+        <v>400450.79229237</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>432027.53807466</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>173962.22464542</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>170880.132842</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>124267.23679051</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>155744.86946222</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>70628.7697361</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>230741.72014788</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>240758.31601282</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>614115.11759059</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>115597.69639057</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>289034.84881927</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>169703.52497129</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>172867.75314384</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>203146.16223958</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>261297.75540222</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>158245.95063799</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>136551.50179983</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>229237.71972215</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>186599.61250259</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>205453.51578506</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>158965.69224797</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>407371.65144966</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>66546.19003295001</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>392895.04072392</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>172037.38427251</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>171232.63217041</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>209579.59022384</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>202120.1373475</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>1018</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>95850.28893152</v>
       </c>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
-      <c r="AE8" t="s"/>
-      <c r="AF8" t="s"/>
-      <c r="AG8" t="s"/>
-      <c r="AH8" t="s"/>
-      <c r="AI8" t="s"/>
-      <c r="AJ8" t="s"/>
-      <c r="AK8" t="s"/>
-      <c r="AL8" t="s"/>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
-      <c r="AO8" t="s"/>
-      <c r="AP8" t="s"/>
-      <c r="AQ8" t="s"/>
-      <c r="AR8" t="s"/>
-      <c r="AS8" t="s"/>
-      <c r="AT8" t="s"/>
-      <c r="AU8" t="s"/>
-      <c r="AV8" t="s"/>
-      <c r="AW8" t="s"/>
-      <c r="AX8" t="s"/>
-      <c r="AY8" t="s"/>
-      <c r="AZ8" t="s"/>
-      <c r="BA8" t="n">
-        <v>95850.28893152</v>
+      <c r="C8" t="n">
+        <v>111422.76724399</v>
+      </c>
+      <c r="D8" t="n">
+        <v>128965.3440317</v>
+      </c>
+      <c r="E8" t="n">
+        <v>150305.90104062</v>
+      </c>
+      <c r="F8" t="n">
+        <v>56863.39283277</v>
+      </c>
+      <c r="G8" t="n">
+        <v>75601.46582919999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>121616.26925079</v>
+      </c>
+      <c r="I8" t="n">
+        <v>121240.91756879</v>
+      </c>
+      <c r="J8" t="n">
+        <v>82438.59068374</v>
+      </c>
+      <c r="K8" t="n">
+        <v>65247.9828177</v>
+      </c>
+      <c r="L8" t="n">
+        <v>173779.5812738</v>
+      </c>
+      <c r="M8" t="n">
+        <v>159134.91502076</v>
+      </c>
+      <c r="N8" t="n">
+        <v>30203.77179383</v>
+      </c>
+      <c r="O8" t="n">
+        <v>201220.49970173</v>
+      </c>
+      <c r="P8" t="n">
+        <v>64721.26286116</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>74941.77235478</v>
+      </c>
+      <c r="R8" t="n">
+        <v>87027.58115819001</v>
+      </c>
+      <c r="S8" t="n">
+        <v>56328.48186794</v>
+      </c>
+      <c r="T8" t="n">
+        <v>96643.13288837</v>
+      </c>
+      <c r="U8" t="n">
+        <v>181859.97126219</v>
+      </c>
+      <c r="V8" t="n">
+        <v>78645.34139137001</v>
+      </c>
+      <c r="W8" t="n">
+        <v>154147.56686761</v>
+      </c>
+      <c r="X8" t="n">
+        <v>194783.02421668</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>201385.62245152</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>95672.33914476</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>141881.631173</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>48434.11427718</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>106526.00710526</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>42879.15071954</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>206770.60484424</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>203744.59094594</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>217003.87581293</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>100678.41277634</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>152928.02895597</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>161367.83707052</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>55130.72600575</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>72055.64824792001</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>55900.0768427</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>155591.47936179</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>97159.07771312</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>47440.87135014</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>49095.98067223</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>102910.49283503</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>72524.3359355</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>96519.75785327</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>34055.66346371</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>325697.96511685</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>107534.88144086</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>109157.31256547</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>201212.23809657</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>116484.97091335</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>1272</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>95850.28893152</v>
       </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
-      <c r="AE9" t="s"/>
-      <c r="AF9" t="s"/>
-      <c r="AG9" t="s"/>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
-      <c r="AQ9" t="s"/>
-      <c r="AR9" t="s"/>
-      <c r="AS9" t="s"/>
-      <c r="AT9" t="s"/>
-      <c r="AU9" t="s"/>
-      <c r="AV9" t="s"/>
-      <c r="AW9" t="s"/>
-      <c r="AX9" t="s"/>
-      <c r="AY9" t="s"/>
-      <c r="AZ9" t="s"/>
-      <c r="BA9" t="n">
-        <v>95850.28893152</v>
+      <c r="C9" t="n">
+        <v>57806.48940862</v>
+      </c>
+      <c r="D9" t="n">
+        <v>48658.53096472</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54761.75067469</v>
+      </c>
+      <c r="F9" t="n">
+        <v>45973.60730678</v>
+      </c>
+      <c r="G9" t="n">
+        <v>69187.91943792001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>105561.79866417</v>
+      </c>
+      <c r="I9" t="n">
+        <v>36662.36389716</v>
+      </c>
+      <c r="J9" t="n">
+        <v>66404.05717256</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19500.71603724</v>
+      </c>
+      <c r="L9" t="n">
+        <v>102026.47175583</v>
+      </c>
+      <c r="M9" t="n">
+        <v>120112.17070431</v>
+      </c>
+      <c r="N9" t="n">
+        <v>24626.9114227</v>
+      </c>
+      <c r="O9" t="n">
+        <v>84203.32030329001</v>
+      </c>
+      <c r="P9" t="n">
+        <v>52987.93500121</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>47186.69406143</v>
+      </c>
+      <c r="R9" t="n">
+        <v>45640.77033584</v>
+      </c>
+      <c r="S9" t="n">
+        <v>40035.06328219</v>
+      </c>
+      <c r="T9" t="n">
+        <v>65646.25796518</v>
+      </c>
+      <c r="U9" t="n">
+        <v>141578.87199271</v>
+      </c>
+      <c r="V9" t="n">
+        <v>28532.70795622</v>
+      </c>
+      <c r="W9" t="n">
+        <v>62720.66585736</v>
+      </c>
+      <c r="X9" t="n">
+        <v>76745.15953336</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>54972.25572578</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>15255.36759661</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>84594.23119005001</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41888.53439722</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>56662.33231462</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>35396.44906153</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>172158.83774086</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>44682.07620795</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>211248.39909985</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>57576.1464275</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>142972.9394349</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>41245.60529766</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>36687.36534018</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>69870.60785283</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41767.6040024</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>48559.77052097</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>96275.98601509001</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>31281.68620071</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>49095.98067223</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>75281.93428219001</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>59501.69511515</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>96519.75785327</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>22922.09805788</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>85032.49033117</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>96333.12919045999</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>49608.50821892</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>44817.05486374</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>67092.38731357</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1527</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>95850.28893152</v>
       </c>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
-      <c r="Z10" t="s"/>
-      <c r="AA10" t="s"/>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="s"/>
-      <c r="AE10" t="s"/>
-      <c r="AF10" t="s"/>
-      <c r="AG10" t="s"/>
-      <c r="AH10" t="s"/>
-      <c r="AI10" t="s"/>
-      <c r="AJ10" t="s"/>
-      <c r="AK10" t="s"/>
-      <c r="AL10" t="s"/>
-      <c r="AM10" t="s"/>
-      <c r="AN10" t="s"/>
-      <c r="AO10" t="s"/>
-      <c r="AP10" t="s"/>
-      <c r="AQ10" t="s"/>
-      <c r="AR10" t="s"/>
-      <c r="AS10" t="s"/>
-      <c r="AT10" t="s"/>
-      <c r="AU10" t="s"/>
-      <c r="AV10" t="s"/>
-      <c r="AW10" t="s"/>
-      <c r="AX10" t="s"/>
-      <c r="AY10" t="s"/>
-      <c r="AZ10" t="s"/>
-      <c r="BA10" t="n">
-        <v>95850.28893152</v>
+      <c r="C10" t="n">
+        <v>38185.78918011</v>
+      </c>
+      <c r="D10" t="n">
+        <v>48008.77336304</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35478.84824842</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27901.33169674</v>
+      </c>
+      <c r="G10" t="n">
+        <v>34579.28129405</v>
+      </c>
+      <c r="H10" t="n">
+        <v>49977.18514696</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33704.70641977</v>
+      </c>
+      <c r="J10" t="n">
+        <v>31352.66233829</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4768.17650782</v>
+      </c>
+      <c r="L10" t="n">
+        <v>82020.64689608999</v>
+      </c>
+      <c r="M10" t="n">
+        <v>78029.65040819001</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17520.92836023</v>
+      </c>
+      <c r="O10" t="n">
+        <v>82910.74817883001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>21069.23911051</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>42954.3675372</v>
+      </c>
+      <c r="R10" t="n">
+        <v>34173.97352652</v>
+      </c>
+      <c r="S10" t="n">
+        <v>38333.13568105</v>
+      </c>
+      <c r="T10" t="n">
+        <v>47629.19295751</v>
+      </c>
+      <c r="U10" t="n">
+        <v>52667.9385392</v>
+      </c>
+      <c r="V10" t="n">
+        <v>15304.27814632</v>
+      </c>
+      <c r="W10" t="n">
+        <v>13441.89722107</v>
+      </c>
+      <c r="X10" t="n">
+        <v>44804.05039796</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>50027.49080611</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>12030.61586871</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>84594.23119005001</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>36164.03786326</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>27131.09856921</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>30836.85057292</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>171047.3715552</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>21681.36187216</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>110311.68317915</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>39711.02315892</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>80128.39738395</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>41162.43537588</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29364.69957345</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>61563.1777094</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>7415.66102819</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>12500.82063227</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>64478.46335949</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>24611.18124555</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>24743.92914784</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51344.61634089</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>48210.0459938</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>95153.37962368</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>16871.66445672</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>85032.49033117</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>58317.09282445</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>31431.00664227</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>38444.37870708</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>46499.52590198</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1782</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>51192.95849758</v>
       </c>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="s"/>
-      <c r="AE11" t="s"/>
-      <c r="AF11" t="s"/>
-      <c r="AG11" t="s"/>
-      <c r="AH11" t="s"/>
-      <c r="AI11" t="s"/>
-      <c r="AJ11" t="s"/>
-      <c r="AK11" t="s"/>
-      <c r="AL11" t="s"/>
-      <c r="AM11" t="s"/>
-      <c r="AN11" t="s"/>
-      <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
-      <c r="AQ11" t="s"/>
-      <c r="AR11" t="s"/>
-      <c r="AS11" t="s"/>
-      <c r="AT11" t="s"/>
-      <c r="AU11" t="s"/>
-      <c r="AV11" t="s"/>
-      <c r="AW11" t="s"/>
-      <c r="AX11" t="s"/>
-      <c r="AY11" t="s"/>
-      <c r="AZ11" t="s"/>
-      <c r="BA11" t="n">
-        <v>51192.95849758</v>
+      <c r="C11" t="n">
+        <v>37985.90016944</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47888.78196227</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23514.77913195</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25543.15504636</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12846.83552778</v>
+      </c>
+      <c r="H11" t="n">
+        <v>22278.43060667</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17607.9330172</v>
+      </c>
+      <c r="J11" t="n">
+        <v>27438.97542864</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3877.32535379</v>
+      </c>
+      <c r="L11" t="n">
+        <v>42899.60339079</v>
+      </c>
+      <c r="M11" t="n">
+        <v>60627.29047001</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10768.81956295</v>
+      </c>
+      <c r="O11" t="n">
+        <v>78103.66583915</v>
+      </c>
+      <c r="P11" t="n">
+        <v>20553.36618895</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>28116.58544029</v>
+      </c>
+      <c r="R11" t="n">
+        <v>34163.98006657</v>
+      </c>
+      <c r="S11" t="n">
+        <v>26164.03653622</v>
+      </c>
+      <c r="T11" t="n">
+        <v>21234.99439775</v>
+      </c>
+      <c r="U11" t="n">
+        <v>52381.4122696</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9105.85715494</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13441.89722107</v>
+      </c>
+      <c r="X11" t="n">
+        <v>44783.58415515</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>39574.17892238</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12030.61586871</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>24872.66415282</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>35730.90676753</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>27111.47857238</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>20498.83403535</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>83286.80326525</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>19604.47903635</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>95099.34944893001</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>39711.02315892</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>60959.03704273</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>39613.9373712</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>4550.50102346</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>28376.88894655</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>5940.12589977</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5959.29476778</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>28943.53486279</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>12227.80064097</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>6620.76421866</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>12148.54799309</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>17136.50519052</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>40043.73867717</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>4865.6699163</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>85032.49033117</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>31639.31659416</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>26619.37407379</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>30327.17187415</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>31020.90400176</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>2036</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>37112.09047095</v>
       </c>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
-      <c r="Z12" t="s"/>
-      <c r="AA12" t="s"/>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="s"/>
-      <c r="AE12" t="s"/>
-      <c r="AF12" t="s"/>
-      <c r="AG12" t="s"/>
-      <c r="AH12" t="s"/>
-      <c r="AI12" t="s"/>
-      <c r="AJ12" t="s"/>
-      <c r="AK12" t="s"/>
-      <c r="AL12" t="s"/>
-      <c r="AM12" t="s"/>
-      <c r="AN12" t="s"/>
-      <c r="AO12" t="s"/>
-      <c r="AP12" t="s"/>
-      <c r="AQ12" t="s"/>
-      <c r="AR12" t="s"/>
-      <c r="AS12" t="s"/>
-      <c r="AT12" t="s"/>
-      <c r="AU12" t="s"/>
-      <c r="AV12" t="s"/>
-      <c r="AW12" t="s"/>
-      <c r="AX12" t="s"/>
-      <c r="AY12" t="s"/>
-      <c r="AZ12" t="s"/>
-      <c r="BA12" t="n">
-        <v>37112.09047095</v>
+      <c r="C12" t="n">
+        <v>23161.99152703</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26019.99783532</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16323.50653029</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16512.92662322</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9862.972530589999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>15071.35073679</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12369.62102113</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15021.26352364</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3877.32535379</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7263.35477407</v>
+      </c>
+      <c r="M12" t="n">
+        <v>29249.25632046</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7688.10206977</v>
+      </c>
+      <c r="O12" t="n">
+        <v>43056.45794734</v>
+      </c>
+      <c r="P12" t="n">
+        <v>16809.5155766</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>26498.16493166</v>
+      </c>
+      <c r="R12" t="n">
+        <v>34163.98006657</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10281.97245167</v>
+      </c>
+      <c r="T12" t="n">
+        <v>13410.81671304</v>
+      </c>
+      <c r="U12" t="n">
+        <v>52381.4122696</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6592.10661008</v>
+      </c>
+      <c r="W12" t="n">
+        <v>12427.7716168</v>
+      </c>
+      <c r="X12" t="n">
+        <v>41044.75317796</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>14414.2941352</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6651.27745432</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>20786.93215643</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>18243.52854427</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>16704.7006122</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13314.60129525</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>83164.73619821999</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>5902.14704176</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>58755.18473812</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19919.66588199</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>48588.13961781</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>16006.07584344</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3431.00131617</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>14117.34047758</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>5919.74347319</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1640.24510728</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>28942.95919756</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>10018.11128405</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>5301.90442593</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>7130.95031191</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>17136.50519052</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>40043.73867717</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>4845.07437327</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>60532.30949008</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>24605.03310294</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21298.83328637</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>23251.52848223</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>21337.34544787</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>2290</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>10670.61971372</v>
       </c>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="s"/>
-      <c r="AE13" t="s"/>
-      <c r="AF13" t="s"/>
-      <c r="AG13" t="s"/>
-      <c r="AH13" t="s"/>
-      <c r="AI13" t="s"/>
-      <c r="AJ13" t="s"/>
-      <c r="AK13" t="s"/>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
-      <c r="AQ13" t="s"/>
-      <c r="AR13" t="s"/>
-      <c r="AS13" t="s"/>
-      <c r="AT13" t="s"/>
-      <c r="AU13" t="s"/>
-      <c r="AV13" t="s"/>
-      <c r="AW13" t="s"/>
-      <c r="AX13" t="s"/>
-      <c r="AY13" t="s"/>
-      <c r="AZ13" t="s"/>
-      <c r="BA13" t="n">
-        <v>10670.61971372</v>
+      <c r="C13" t="n">
+        <v>18901.97735842</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26019.99783532</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15317.60530861</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3533.42167737</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9533.397340699999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11081.67920398</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12289.02584565</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9011.54950508</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3705.20443711</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2899.03272066</v>
+      </c>
+      <c r="M13" t="n">
+        <v>23344.62204392</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7117.0294871</v>
+      </c>
+      <c r="O13" t="n">
+        <v>42710.32792875</v>
+      </c>
+      <c r="P13" t="n">
+        <v>14675.19982014</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>13829.58899026</v>
+      </c>
+      <c r="R13" t="n">
+        <v>30525.78958265</v>
+      </c>
+      <c r="S13" t="n">
+        <v>9383.37676392</v>
+      </c>
+      <c r="T13" t="n">
+        <v>8572.120749809999</v>
+      </c>
+      <c r="U13" t="n">
+        <v>34432.21968282</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6588.118475</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7102.3060521</v>
+      </c>
+      <c r="X13" t="n">
+        <v>14857.18451189</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>6557.49732734</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3596.96738472</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11531.27170644</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>18175.63445652</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>5605.57813733</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7704.98894016</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>62909.35356269</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>5866.28113599</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>25784.85899667</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>14615.28908423</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>20589.97660002</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13893.44036972</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>3431.00131617</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>9305.959918029999</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>5499.16168066</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>646.66134149</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>21935.31193311</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>4495.71489039</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>5040.09378864</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>7014.88157782</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>14941.7123686</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>33527.42862498</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>3824.27872112</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>10472.24639452</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>19206.79528071</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>13687.25547029</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>12212.9929319</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>13963.4805795</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>2545</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>6109.14633784</v>
       </c>
-      <c r="C14" t="s"/>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s"/>
-      <c r="AE14" t="s"/>
-      <c r="AF14" t="s"/>
-      <c r="AG14" t="s"/>
-      <c r="AH14" t="s"/>
-      <c r="AI14" t="s"/>
-      <c r="AJ14" t="s"/>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
-      <c r="AM14" t="s"/>
-      <c r="AN14" t="s"/>
-      <c r="AO14" t="s"/>
-      <c r="AP14" t="s"/>
-      <c r="AQ14" t="s"/>
-      <c r="AR14" t="s"/>
-      <c r="AS14" t="s"/>
-      <c r="AT14" t="s"/>
-      <c r="AU14" t="s"/>
-      <c r="AV14" t="s"/>
-      <c r="AW14" t="s"/>
-      <c r="AX14" t="s"/>
-      <c r="AY14" t="s"/>
-      <c r="AZ14" t="s"/>
-      <c r="BA14" t="n">
-        <v>6109.14633784</v>
+      <c r="C14" t="n">
+        <v>12899.22149385</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10501.65824528</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11589.89081924</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2690.59651794</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6346.20280674</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3787.48847515</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6853.39906098</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4526.22281622</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3644.8559057</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2896.64182834</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6640.66983581</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6035.06942945</v>
+      </c>
+      <c r="O14" t="n">
+        <v>42710.32792875</v>
+      </c>
+      <c r="P14" t="n">
+        <v>13720.96219055</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>11276.14026646</v>
+      </c>
+      <c r="R14" t="n">
+        <v>27386.00859242</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9383.37676392</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4363.76983831</v>
+      </c>
+      <c r="U14" t="n">
+        <v>22348.95248131</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3436.93764831</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7102.3060521</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10744.02944765</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4950.7726087</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3480.72997173</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>8875.77056157</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>18130.95648787</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>5593.76462945</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5566.88260314</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>24158.85994941</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>5866.28113599</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9518.450764839999</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>14584.58024841</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>20234.27579029</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8861.61597119</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>3125.60701699</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>7964.77366819</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1225.83851786</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>35.8023599</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11170.0911906</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>4495.71489039</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>4232.72778722</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>3804.27854963</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1773.89698413</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>15428.09119225</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>3092.74298736</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>8919.69640579</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>15505.03675545</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>12999.54469597</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>5489.15078109</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>9321.596185750001</v>
       </c>
     </row>
   </sheetData>
